--- a/MoPanda/output/05121111000000_electrofacies_mean_log_responses.xlsx
+++ b/MoPanda/output/05121111000000_electrofacies_mean_log_responses.xlsx
@@ -515,40 +515,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.00825</v>
+        <v>8.797751004016064</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5656</v>
+        <v>68.05663052208835</v>
       </c>
       <c r="E2" t="n">
-        <v>80.8105</v>
+        <v>87.17411646586345</v>
       </c>
       <c r="F2" t="n">
-        <v>79.157875</v>
+        <v>79.48048192771084</v>
       </c>
       <c r="G2" t="n">
-        <v>0.265075</v>
+        <v>0.1525381526104418</v>
       </c>
       <c r="H2" t="n">
-        <v>4.754659579752842</v>
+        <v>1.524202402027238</v>
       </c>
       <c r="I2" t="n">
-        <v>3.244024356331844</v>
+        <v>5.675949802385039</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0496625</v>
+        <v>0.1786465863453815</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3652625</v>
+        <v>0.1137068273092369</v>
       </c>
       <c r="L2" t="n">
-        <v>2.085325</v>
+        <v>2.515550200803213</v>
       </c>
       <c r="M2" t="n">
-        <v>4.688750000000001</v>
+        <v>3.092008032128514</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -561,40 +561,40 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8.788255813953487</v>
+        <v>8.797966101694914</v>
       </c>
       <c r="D3" t="n">
-        <v>74.37679457364341</v>
+        <v>6.978395480225989</v>
       </c>
       <c r="E3" t="n">
-        <v>89.05100775193799</v>
+        <v>84.28484745762712</v>
       </c>
       <c r="F3" t="n">
-        <v>84.7262015503876</v>
+        <v>52.55050847457628</v>
       </c>
       <c r="G3" t="n">
-        <v>0.186453488372093</v>
+        <v>0.07675141242937854</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7193048203161208</v>
+        <v>5.550447071303678</v>
       </c>
       <c r="I3" t="n">
-        <v>1.912382603266668</v>
+        <v>6.31474425483631</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2424496124031008</v>
+        <v>0.002892655367231638</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09925581395348837</v>
+        <v>-0.09303389830508474</v>
       </c>
       <c r="L3" t="n">
-        <v>2.540321705426356</v>
+        <v>2.869028248587571</v>
       </c>
       <c r="M3" t="n">
-        <v>3.327093023255814</v>
+        <v>5.18457627118644</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -607,40 +607,40 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.79020066889632</v>
+        <v>8.927985865724381</v>
       </c>
       <c r="D4" t="n">
-        <v>58.68852173913043</v>
+        <v>9.961190812720847</v>
       </c>
       <c r="E4" t="n">
-        <v>90.92819732441471</v>
+        <v>88.68142756183745</v>
       </c>
       <c r="F4" t="n">
-        <v>74.62331103678929</v>
+        <v>71.30120141342756</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1245217391304348</v>
+        <v>0.2704028268551237</v>
       </c>
       <c r="H4" t="n">
-        <v>1.348294598750134</v>
+        <v>6.002302039577635</v>
       </c>
       <c r="I4" t="n">
-        <v>2.70781374586526</v>
+        <v>4.043077523693764</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1466321070234114</v>
+        <v>0.002992932862190812</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08559866220735786</v>
+        <v>0.3799717314487632</v>
       </c>
       <c r="L4" t="n">
-        <v>2.563625418060201</v>
+        <v>2.060272084805654</v>
       </c>
       <c r="M4" t="n">
-        <v>3.305250836120401</v>
+        <v>4.918021201413428</v>
       </c>
       <c r="N4" t="n">
-        <v>98</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -653,37 +653,37 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>12.42840579710145</v>
+        <v>8.185333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>32.78265217391304</v>
+        <v>39.66561666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>17.73242028985507</v>
+        <v>9.910633333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>108.7733333333333</v>
+        <v>99.89525</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2540434782608695</v>
+        <v>0.2575</v>
       </c>
       <c r="H5" t="n">
-        <v>2.431245666900013</v>
+        <v>0.8779901033728889</v>
       </c>
       <c r="I5" t="n">
-        <v>8.516235890227312</v>
+        <v>7.800576221185289</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3247536231884058</v>
+        <v>0.34345</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1530289855072464</v>
+        <v>0.06041666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>2.448391304347826</v>
+        <v>2.5123</v>
       </c>
       <c r="M5" t="n">
-        <v>2.99768115942029</v>
+        <v>3.003333333333333</v>
       </c>
       <c r="N5" t="n">
         <v>99</v>
@@ -699,37 +699,37 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.08</v>
+        <v>11.78228070175439</v>
       </c>
       <c r="D6" t="n">
-        <v>34.51659731543624</v>
+        <v>32.30050877192982</v>
       </c>
       <c r="E6" t="n">
-        <v>12.71531543624161</v>
+        <v>82.03331578947369</v>
       </c>
       <c r="F6" t="n">
-        <v>89.14929969801585</v>
+        <v>97.59350877192982</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2204731543624161</v>
+        <v>0.3320526315789474</v>
       </c>
       <c r="H6" t="n">
-        <v>2.277483229276883</v>
+        <v>1.077354240797198</v>
       </c>
       <c r="I6" t="n">
-        <v>6.608442211754123</v>
+        <v>6.610122195472119</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2756577181208054</v>
+        <v>0.3712456140350878</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09786241610738255</v>
+        <v>0.2809824561403508</v>
       </c>
       <c r="L6" t="n">
-        <v>2.481127516778523</v>
+        <v>2.229666666666667</v>
       </c>
       <c r="M6" t="n">
-        <v>2.716744966442953</v>
+        <v>3.956491228070176</v>
       </c>
       <c r="N6" t="n">
         <v>99</v>
@@ -745,40 +745,40 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>8.798409090909091</v>
+        <v>8.82090163934426</v>
       </c>
       <c r="D7" t="n">
-        <v>6.902318181818182</v>
+        <v>32.62152459016394</v>
       </c>
       <c r="E7" t="n">
-        <v>84.29831818181819</v>
+        <v>89.54910655737704</v>
       </c>
       <c r="F7" t="n">
-        <v>52.52676136363636</v>
+        <v>96.08811475409836</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07697727272727273</v>
+        <v>0.2803606557377049</v>
       </c>
       <c r="H7" t="n">
-        <v>5.565128970265037</v>
+        <v>0.915146883802782</v>
       </c>
       <c r="I7" t="n">
-        <v>6.314781435602706</v>
+        <v>7.170190093023302</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002761363636363636</v>
+        <v>0.2639754098360655</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.09330681818181819</v>
+        <v>0.3133360655737705</v>
       </c>
       <c r="L7" t="n">
-        <v>2.869494318181818</v>
+        <v>2.217696721311476</v>
       </c>
       <c r="M7" t="n">
-        <v>5.189943181818181</v>
+        <v>2.14327868852459</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -791,40 +791,40 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>8.806899999999999</v>
+        <v>12.40028571428571</v>
       </c>
       <c r="D8" t="n">
-        <v>27.33418</v>
+        <v>32.72512857142857</v>
       </c>
       <c r="E8" t="n">
-        <v>91.26739999999999</v>
+        <v>18.54992857142857</v>
       </c>
       <c r="F8" t="n">
-        <v>97.0108</v>
+        <v>108.8637142857143</v>
       </c>
       <c r="G8" t="n">
-        <v>0.28848</v>
+        <v>0.2564571428571429</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9647914585344864</v>
+        <v>0.2122513736337434</v>
       </c>
       <c r="I8" t="n">
-        <v>7.051770073944604</v>
+        <v>8.502705157474713</v>
       </c>
       <c r="J8" t="n">
-        <v>0.26094</v>
+        <v>0.3282285714285714</v>
       </c>
       <c r="K8" t="n">
-        <v>0.33891</v>
+        <v>0.1534714285714286</v>
       </c>
       <c r="L8" t="n">
-        <v>2.18351</v>
+        <v>2.447614285714286</v>
       </c>
       <c r="M8" t="n">
-        <v>1.9562</v>
+        <v>3.014714285714286</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -837,40 +837,40 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>8.762293577981652</v>
+        <v>7.941727272727273</v>
       </c>
       <c r="D9" t="n">
-        <v>79.00963302752292</v>
+        <v>28.14355454545455</v>
       </c>
       <c r="E9" t="n">
-        <v>74.71452752293578</v>
+        <v>10.89314545454546</v>
       </c>
       <c r="F9" t="n">
-        <v>98.92692660550459</v>
+        <v>77.57755736371568</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2494449541284404</v>
+        <v>0.1803090909090909</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4285682768311571</v>
+        <v>1.951805975403561</v>
       </c>
       <c r="I9" t="n">
-        <v>3.149296584674687</v>
+        <v>8.096697351609023</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3091100917431193</v>
+        <v>0.2111636363636364</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1671146788990825</v>
+        <v>0.1365545454545455</v>
       </c>
       <c r="L9" t="n">
-        <v>2.426766055045872</v>
+        <v>2.476454545454545</v>
       </c>
       <c r="M9" t="n">
-        <v>3.063348623853211</v>
+        <v>2.594272727272728</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -883,40 +883,40 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>8.809790575916232</v>
+        <v>8.802909836065574</v>
       </c>
       <c r="D10" t="n">
-        <v>70.84791099476439</v>
+        <v>88.59856967213115</v>
       </c>
       <c r="E10" t="n">
-        <v>85.86444502617802</v>
+        <v>79.14686475409836</v>
       </c>
       <c r="F10" t="n">
-        <v>83.73261780104713</v>
+        <v>96.92762295081967</v>
       </c>
       <c r="G10" t="n">
-        <v>0.177565445026178</v>
+        <v>0.2377172131147541</v>
       </c>
       <c r="H10" t="n">
-        <v>1.326496812673127</v>
+        <v>0.4047223690270064</v>
       </c>
       <c r="I10" t="n">
-        <v>6.892829805861611</v>
+        <v>3.594725287216554</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2083403141361256</v>
+        <v>0.2946762295081967</v>
       </c>
       <c r="K10" t="n">
-        <v>0.133109947643979</v>
+        <v>0.1581762295081967</v>
       </c>
       <c r="L10" t="n">
-        <v>2.482418848167539</v>
+        <v>2.439622950819672</v>
       </c>
       <c r="M10" t="n">
-        <v>3.022146596858639</v>
+        <v>3.092745901639344</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -929,40 +929,40 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>11.74637931034483</v>
+        <v>8.780000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>32.35196551724138</v>
+        <v>38.27062857142857</v>
       </c>
       <c r="E11" t="n">
-        <v>81.94010344827586</v>
+        <v>83.88352142857143</v>
       </c>
       <c r="F11" t="n">
-        <v>96.82155172413792</v>
+        <v>72.44714285714286</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3341896551724138</v>
+        <v>0.08402857142857142</v>
       </c>
       <c r="H11" t="n">
-        <v>1.06549413294006</v>
+        <v>1.648691125277343</v>
       </c>
       <c r="I11" t="n">
-        <v>6.751796820794567</v>
+        <v>5.215601969630026</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3757586206896552</v>
+        <v>0.10855</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2788793103448276</v>
+        <v>0.003942857142857142</v>
       </c>
       <c r="L11" t="n">
-        <v>2.233206896551724</v>
+        <v>2.703285714285714</v>
       </c>
       <c r="M11" t="n">
-        <v>3.988965517241379</v>
+        <v>4.077714285714285</v>
       </c>
       <c r="N11" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -975,40 +975,40 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>8.901463414634145</v>
+        <v>8.398529411764706</v>
       </c>
       <c r="D12" t="n">
-        <v>6.477936585365854</v>
+        <v>39.43073529411765</v>
       </c>
       <c r="E12" t="n">
-        <v>91.64599512195122</v>
+        <v>42.893875</v>
       </c>
       <c r="F12" t="n">
-        <v>68.2439512195122</v>
+        <v>91.11301470588236</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2726</v>
+        <v>0.2284485294117647</v>
       </c>
       <c r="H12" t="n">
-        <v>6.453853360462949</v>
+        <v>0.9309633484538844</v>
       </c>
       <c r="I12" t="n">
-        <v>4.363428903590175</v>
+        <v>2.068345542077086</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01314634146341463</v>
+        <v>0.2815882352941176</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3852341463414634</v>
+        <v>0.1182426470588235</v>
       </c>
       <c r="L12" t="n">
-        <v>2.051312195121951</v>
+        <v>2.460257352941177</v>
       </c>
       <c r="M12" t="n">
-        <v>5.001365853658537</v>
+        <v>2.886176470588235</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -1021,40 +1021,40 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>8.782061068702291</v>
+        <v>8.7864</v>
       </c>
       <c r="D13" t="n">
-        <v>38.13332061068702</v>
+        <v>65.19525066666667</v>
       </c>
       <c r="E13" t="n">
-        <v>83.84954198473284</v>
+        <v>93.114608</v>
       </c>
       <c r="F13" t="n">
-        <v>71.92412213740458</v>
+        <v>77.93890666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08181679389312978</v>
+        <v>0.1485413333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1.705312522027434</v>
+        <v>1.034218763886132</v>
       </c>
       <c r="I13" t="n">
-        <v>5.402063276816971</v>
+        <v>1.855152956922079</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1053206106870229</v>
+        <v>0.1854853333333333</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0005801526717557248</v>
+        <v>0.08754666666666666</v>
       </c>
       <c r="L13" t="n">
-        <v>2.709007633587786</v>
+        <v>2.560301333333333</v>
       </c>
       <c r="M13" t="n">
-        <v>4.071450381679389</v>
+        <v>3.30952</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1067,40 +1067,40 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>8.798320895522387</v>
+        <v>8.789782135076253</v>
       </c>
       <c r="D14" t="n">
-        <v>70.54326865671642</v>
+        <v>66.0814422657952</v>
       </c>
       <c r="E14" t="n">
-        <v>85.50176865671641</v>
+        <v>92.71166666666666</v>
       </c>
       <c r="F14" t="n">
-        <v>84.29694029850747</v>
+        <v>77.04503267973855</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1807873134328358</v>
+        <v>0.1436187363834423</v>
       </c>
       <c r="H14" t="n">
-        <v>1.303983734591433</v>
+        <v>1.205412659387715</v>
       </c>
       <c r="I14" t="n">
-        <v>6.265611559393483</v>
+        <v>2.526282264983204</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2111567164179105</v>
+        <v>0.1757734204793029</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1370261194029851</v>
+        <v>0.09141394335511983</v>
       </c>
       <c r="L14" t="n">
-        <v>2.47570895522388</v>
+        <v>2.553686274509804</v>
       </c>
       <c r="M14" t="n">
-        <v>2.962238805970149</v>
+        <v>3.259281045751634</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1113,40 +1113,40 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>8.78546875</v>
+        <v>11.63112903225806</v>
       </c>
       <c r="D15" t="n">
-        <v>63.53831510416666</v>
+        <v>32.5775</v>
       </c>
       <c r="E15" t="n">
-        <v>93.27234375</v>
+        <v>81.30729032258064</v>
       </c>
       <c r="F15" t="n">
-        <v>76.94424479166666</v>
+        <v>98.64709677419354</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1432135416666667</v>
+        <v>0.3386451612903226</v>
       </c>
       <c r="H15" t="n">
-        <v>1.073850255159174</v>
+        <v>0.8861933983164699</v>
       </c>
       <c r="I15" t="n">
-        <v>2.064447981386793</v>
+        <v>6.20560870362959</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1769140625</v>
+        <v>0.3864032258064516</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08629947916666668</v>
+        <v>0.2750322580645161</v>
       </c>
       <c r="L15" t="n">
-        <v>2.562427083333333</v>
+        <v>2.239790322580645</v>
       </c>
       <c r="M15" t="n">
-        <v>3.30375</v>
+        <v>3.919838709677419</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1159,40 +1159,40 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>8.223356643356643</v>
+        <v>8.79016129032258</v>
       </c>
       <c r="D16" t="n">
-        <v>38.65802797202797</v>
+        <v>79.1790870967742</v>
       </c>
       <c r="E16" t="n">
-        <v>9.893412587412588</v>
+        <v>79.11682580645162</v>
       </c>
       <c r="F16" t="n">
-        <v>97.90055944055945</v>
+        <v>94.39983870967743</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2548741258741259</v>
+        <v>0.2260516129032258</v>
       </c>
       <c r="H16" t="n">
-        <v>2.316416533653365</v>
+        <v>0.4995062027123902</v>
       </c>
       <c r="I16" t="n">
-        <v>7.441083411791069</v>
+        <v>2.954607395260881</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3375174825174825</v>
+        <v>0.2842483870967742</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04486713286713286</v>
+        <v>0.1411354838709677</v>
       </c>
       <c r="L16" t="n">
-        <v>2.50506993006993</v>
+        <v>2.468774193548387</v>
       </c>
       <c r="M16" t="n">
-        <v>2.948741258741259</v>
+        <v>3.196967741935484</v>
       </c>
       <c r="N16" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1205,40 +1205,40 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>8.793154121863799</v>
+        <v>8.91904593639576</v>
       </c>
       <c r="D17" t="n">
-        <v>81.12186379928315</v>
+        <v>9.744720848056536</v>
       </c>
       <c r="E17" t="n">
-        <v>79.36632616487456</v>
+        <v>88.85106360424028</v>
       </c>
       <c r="F17" t="n">
-        <v>95.08888888888889</v>
+        <v>70.97236749116608</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2299283154121864</v>
+        <v>0.2683356890459364</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4508466331321833</v>
+        <v>6.020007221567899</v>
       </c>
       <c r="I17" t="n">
-        <v>2.872372567401941</v>
+        <v>4.034436827166966</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2893333333333333</v>
+        <v>0.0006360424028268551</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1440179211469534</v>
+        <v>0.3776855123674912</v>
       </c>
       <c r="L17" t="n">
-        <v>2.463838709677419</v>
+        <v>2.064183745583039</v>
       </c>
       <c r="M17" t="n">
-        <v>3.243333333333333</v>
+        <v>4.917208480565371</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1251,40 +1251,40 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>11.63112903225806</v>
+        <v>8.80042944785276</v>
       </c>
       <c r="D18" t="n">
-        <v>32.5775</v>
+        <v>68.5429018404908</v>
       </c>
       <c r="E18" t="n">
-        <v>81.30729032258064</v>
+        <v>85.17463803680982</v>
       </c>
       <c r="F18" t="n">
-        <v>98.64709677419354</v>
+        <v>86.51607361963191</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3386451612903226</v>
+        <v>0.1934233128834356</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8864802388970346</v>
+        <v>1.130964456085769</v>
       </c>
       <c r="I18" t="n">
-        <v>6.20560870362959</v>
+        <v>7.381805825484182</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3864032258064516</v>
+        <v>0.2227361963190184</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2750322580645161</v>
+        <v>0.1496625766871165</v>
       </c>
       <c r="L18" t="n">
-        <v>2.239790322580645</v>
+        <v>2.454067484662577</v>
       </c>
       <c r="M18" t="n">
-        <v>3.919838709677419</v>
+        <v>2.951411042944785</v>
       </c>
       <c r="N18" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1312,7 +1312,7 @@
         <v>0.07603468208092486</v>
       </c>
       <c r="H19" t="n">
-        <v>5.579903965974411</v>
+        <v>5.579899364423711</v>
       </c>
       <c r="I19" t="n">
         <v>6.382951786285654</v>
@@ -1343,40 +1343,40 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>8.872371134020618</v>
+        <v>8.254715447154473</v>
       </c>
       <c r="D20" t="n">
-        <v>25.45042268041237</v>
+        <v>39.13023577235773</v>
       </c>
       <c r="E20" t="n">
-        <v>90.20259793814434</v>
+        <v>11.65155284552846</v>
       </c>
       <c r="F20" t="n">
-        <v>96.53969072164949</v>
+        <v>99.15878048780489</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2962268041237113</v>
+        <v>0.2635203252032521</v>
       </c>
       <c r="H20" t="n">
-        <v>1.095756885751024</v>
+        <v>0.9461999594418006</v>
       </c>
       <c r="I20" t="n">
-        <v>6.867765831384551</v>
+        <v>7.262943413463653</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2665670103092783</v>
+        <v>0.3489024390243902</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3514742268041238</v>
+        <v>0.03804878048780488</v>
       </c>
       <c r="L20" t="n">
-        <v>2.169154639175257</v>
+        <v>2.495869918699187</v>
       </c>
       <c r="M20" t="n">
-        <v>2.131855670103093</v>
+        <v>2.924390243902439</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -1389,40 +1389,40 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>8.91904593639576</v>
+        <v>8.780967741935484</v>
       </c>
       <c r="D21" t="n">
-        <v>9.744720848056536</v>
+        <v>39.53063870967742</v>
       </c>
       <c r="E21" t="n">
-        <v>88.85106360424028</v>
+        <v>84.08796129032258</v>
       </c>
       <c r="F21" t="n">
-        <v>70.97236749116608</v>
+        <v>72.74032258064516</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683356890459364</v>
+        <v>0.08643225806451613</v>
       </c>
       <c r="H21" t="n">
-        <v>6.020006795246879</v>
+        <v>1.629210724716925</v>
       </c>
       <c r="I21" t="n">
-        <v>4.034436827166966</v>
+        <v>5.16249362885172</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0006360424028268551</v>
+        <v>0.1113806451612903</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3776855123674912</v>
+        <v>0.008161290322580644</v>
       </c>
       <c r="L21" t="n">
-        <v>2.064183745583039</v>
+        <v>2.69603870967742</v>
       </c>
       <c r="M21" t="n">
-        <v>4.917208480565371</v>
+        <v>4.034451612903226</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1435,40 +1435,40 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>8.782820512820512</v>
+        <v>8.872371134020618</v>
       </c>
       <c r="D22" t="n">
-        <v>39.99571794871795</v>
+        <v>25.45042268041237</v>
       </c>
       <c r="E22" t="n">
-        <v>84.12635897435896</v>
+        <v>90.20259793814434</v>
       </c>
       <c r="F22" t="n">
-        <v>72.67</v>
+        <v>96.53969072164949</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08542948717948717</v>
+        <v>0.2962268041237113</v>
       </c>
       <c r="H22" t="n">
-        <v>1.649823905926555</v>
+        <v>1.095617317869175</v>
       </c>
       <c r="I22" t="n">
-        <v>5.164031058390887</v>
+        <v>6.867765831384551</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1097307692307692</v>
+        <v>0.2665670103092783</v>
       </c>
       <c r="K22" t="n">
-        <v>0.008512820512820513</v>
+        <v>0.3514742268041238</v>
       </c>
       <c r="L22" t="n">
-        <v>2.695435897435897</v>
+        <v>2.169154639175257</v>
       </c>
       <c r="M22" t="n">
-        <v>4.013333333333334</v>
+        <v>2.131855670103093</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1481,37 +1481,37 @@
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>7.973999999999999</v>
+        <v>7.97661971830986</v>
       </c>
       <c r="D23" t="n">
-        <v>37.65817333333333</v>
+        <v>37.73432394366198</v>
       </c>
       <c r="E23" t="n">
-        <v>21.50876</v>
+        <v>21.85453521126761</v>
       </c>
       <c r="F23" t="n">
-        <v>90.60120000000001</v>
+        <v>91.6887323943662</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2146266666666667</v>
+        <v>0.2160845070422535</v>
       </c>
       <c r="H23" t="n">
-        <v>2.118119057180972</v>
+        <v>1.159885134949436</v>
       </c>
       <c r="I23" t="n">
-        <v>1.819966225798409</v>
+        <v>1.678119496441568</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2512</v>
+        <v>0.2525774647887324</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1610533333333334</v>
+        <v>0.1623802816901408</v>
       </c>
       <c r="L23" t="n">
-        <v>2.434666666666667</v>
+        <v>2.432394366197183</v>
       </c>
       <c r="M23" t="n">
-        <v>2.435333333333333</v>
+        <v>2.427887323943662</v>
       </c>
       <c r="N23" t="n">
         <v>99</v>
@@ -1542,7 +1542,7 @@
         <v>0.2540434782608695</v>
       </c>
       <c r="H24" t="n">
-        <v>2.431245666900013</v>
+        <v>0.2204966825840691</v>
       </c>
       <c r="I24" t="n">
         <v>8.516235890227312</v>
@@ -1573,37 +1573,37 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>7.935851063829787</v>
+        <v>7.951610169491525</v>
       </c>
       <c r="D25" t="n">
-        <v>26.802</v>
+        <v>28.64146610169491</v>
       </c>
       <c r="E25" t="n">
-        <v>11.54863829787234</v>
+        <v>9.565033898305085</v>
       </c>
       <c r="F25" t="n">
-        <v>76.25767351073112</v>
+        <v>78.44628228820953</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1769042553191489</v>
+        <v>0.1815084745762712</v>
       </c>
       <c r="H25" t="n">
-        <v>2.270444491856449</v>
+        <v>1.893498598435787</v>
       </c>
       <c r="I25" t="n">
-        <v>8.17978140872296</v>
+        <v>8.110028162182889</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2046702127659575</v>
+        <v>0.2160677966101695</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1388936170212766</v>
+        <v>0.1300169491525424</v>
       </c>
       <c r="L25" t="n">
-        <v>2.472425531914893</v>
+        <v>2.487635593220339</v>
       </c>
       <c r="M25" t="n">
-        <v>2.561808510638298</v>
+        <v>2.652966101694915</v>
       </c>
       <c r="N25" t="n">
         <v>99</v>
@@ -1896,9 +1896,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC28DBEF-02CE-4E0B-AE80-839F6ABD7006}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA07ECF7-9D93-4C98-ADEF-9C5EEEDCACAE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8862D612-8C79-47E6-AC2C-D5680A48EF25}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AC55E12-75B7-45A4-B1F0-B0E5344F5FAA}"/>
 </file>
--- a/MoPanda/output/05121111000000_electrofacies_mean_log_responses.xlsx
+++ b/MoPanda/output/05121111000000_electrofacies_mean_log_responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,30 +476,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>RESSHAL_N</t>
+          <t>NPHI_N</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>NPHI_N</t>
+          <t>DPHI_N</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DPHI_N</t>
+          <t>RHOB_N</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>RHOB_N</t>
+          <t>PE_N</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>PE_N</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Lithofacies</t>
         </is>
@@ -515,40 +510,37 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.797751004016064</v>
+        <v>8.798021390374332</v>
       </c>
       <c r="D2" t="n">
-        <v>68.05663052208835</v>
+        <v>7.728213903743315</v>
       </c>
       <c r="E2" t="n">
-        <v>87.17411646586345</v>
+        <v>84.22026203208556</v>
       </c>
       <c r="F2" t="n">
-        <v>79.48048192771084</v>
+        <v>53.10262032085562</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1525381526104418</v>
+        <v>0.07578609625668449</v>
       </c>
       <c r="H2" t="n">
-        <v>1.524202402027238</v>
+        <v>5.360394965184467</v>
       </c>
       <c r="I2" t="n">
-        <v>5.675949802385039</v>
+        <v>0.005262032085561497</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1786465863453815</v>
+        <v>-0.09124064171122995</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1137068273092369</v>
+        <v>2.865957219251337</v>
       </c>
       <c r="L2" t="n">
-        <v>2.515550200803213</v>
+        <v>5.153048128342246</v>
       </c>
       <c r="M2" t="n">
-        <v>3.092008032128514</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -561,40 +553,37 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8.797966101694914</v>
+        <v>8.785099601593625</v>
       </c>
       <c r="D3" t="n">
-        <v>6.978395480225989</v>
+        <v>44.45065737051793</v>
       </c>
       <c r="E3" t="n">
-        <v>84.28484745762712</v>
+        <v>88.77359760956175</v>
       </c>
       <c r="F3" t="n">
-        <v>52.55050847457628</v>
+        <v>72.67179282868526</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07675141242937854</v>
+        <v>0.09754980079681275</v>
       </c>
       <c r="H3" t="n">
-        <v>5.550447071303678</v>
+        <v>1.527234446538811</v>
       </c>
       <c r="I3" t="n">
-        <v>6.31474425483631</v>
+        <v>0.1164980079681275</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002892655367231638</v>
+        <v>0.04379681274900399</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.09303389830508474</v>
+        <v>2.635099601593625</v>
       </c>
       <c r="L3" t="n">
-        <v>2.869028248587571</v>
+        <v>3.742470119521912</v>
       </c>
       <c r="M3" t="n">
-        <v>5.18457627118644</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -607,40 +596,37 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.927985865724381</v>
+        <v>9.070599999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>9.961190812720847</v>
+        <v>21.84312</v>
       </c>
       <c r="E4" t="n">
-        <v>88.68142756183745</v>
+        <v>80.46836</v>
       </c>
       <c r="F4" t="n">
-        <v>71.30120141342756</v>
+        <v>82.05059999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2704028268551237</v>
+        <v>0.2666</v>
       </c>
       <c r="H4" t="n">
-        <v>6.002302039577635</v>
+        <v>4.299087825982177</v>
       </c>
       <c r="I4" t="n">
-        <v>4.043077523693764</v>
+        <v>0.07812000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002992932862190812</v>
+        <v>0.36034</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3799717314487632</v>
+        <v>2.09382</v>
       </c>
       <c r="L4" t="n">
-        <v>2.060272084805654</v>
+        <v>4.6416</v>
       </c>
       <c r="M4" t="n">
-        <v>4.918021201413428</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -653,39 +639,36 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.185333333333334</v>
+        <v>8.192179487179487</v>
       </c>
       <c r="D5" t="n">
-        <v>39.66561666666666</v>
+        <v>40.60733333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>9.910633333333333</v>
+        <v>13.196</v>
       </c>
       <c r="F5" t="n">
-        <v>99.89525</v>
+        <v>100.1058974358974</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2575</v>
+        <v>0.2576282051282051</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8779901033728889</v>
+        <v>0.9061289205774157</v>
       </c>
       <c r="I5" t="n">
-        <v>7.800576221185289</v>
+        <v>0.3389294871794872</v>
       </c>
       <c r="J5" t="n">
-        <v>0.34345</v>
+        <v>0.06631410256410257</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06041666666666667</v>
+        <v>2.491153846153846</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5123</v>
+        <v>2.869871794871795</v>
       </c>
       <c r="M5" t="n">
-        <v>3.003333333333333</v>
-      </c>
-      <c r="N5" t="n">
         <v>99</v>
       </c>
     </row>
@@ -699,40 +682,37 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>11.78228070175439</v>
+        <v>8.7730625</v>
       </c>
       <c r="D6" t="n">
-        <v>32.30050877192982</v>
+        <v>86.03218124999999</v>
       </c>
       <c r="E6" t="n">
-        <v>82.03331578947369</v>
+        <v>78.24554375</v>
       </c>
       <c r="F6" t="n">
-        <v>97.59350877192982</v>
+        <v>100.1344375</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3320526315789474</v>
+        <v>0.25001875</v>
       </c>
       <c r="H6" t="n">
-        <v>1.077354240797198</v>
+        <v>0.3103069380878132</v>
       </c>
       <c r="I6" t="n">
-        <v>6.610122195472119</v>
+        <v>0.30704375</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3712456140350878</v>
+        <v>0.1721</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2809824561403508</v>
+        <v>2.41580625</v>
       </c>
       <c r="L6" t="n">
-        <v>2.229666666666667</v>
+        <v>3.010125</v>
       </c>
       <c r="M6" t="n">
-        <v>3.956491228070176</v>
-      </c>
-      <c r="N6" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -745,40 +725,37 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>8.82090163934426</v>
+        <v>12.07061538461538</v>
       </c>
       <c r="D7" t="n">
-        <v>32.62152459016394</v>
+        <v>32.65527692307692</v>
       </c>
       <c r="E7" t="n">
-        <v>89.54910655737704</v>
+        <v>47.61703076923077</v>
       </c>
       <c r="F7" t="n">
-        <v>96.08811475409836</v>
+        <v>103.9490769230769</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2803606557377049</v>
+        <v>0.2934</v>
       </c>
       <c r="H7" t="n">
-        <v>0.915146883802782</v>
+        <v>0.5453248536077085</v>
       </c>
       <c r="I7" t="n">
-        <v>7.170190093023302</v>
+        <v>0.3529692307692308</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2639754098360655</v>
+        <v>0.2104384615384615</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3133360655737705</v>
+        <v>2.350230769230769</v>
       </c>
       <c r="L7" t="n">
-        <v>2.217696721311476</v>
+        <v>3.438384615384615</v>
       </c>
       <c r="M7" t="n">
-        <v>2.14327868852459</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -791,40 +768,37 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>12.40028571428571</v>
+        <v>8.907796610169493</v>
       </c>
       <c r="D8" t="n">
-        <v>32.72512857142857</v>
+        <v>7.726546610169491</v>
       </c>
       <c r="E8" t="n">
-        <v>18.54992857142857</v>
+        <v>90.29174152542372</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8637142857143</v>
+        <v>69.14796610169492</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2564571428571429</v>
+        <v>0.2714406779661017</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2122513736337434</v>
+        <v>6.31759625792264</v>
       </c>
       <c r="I8" t="n">
-        <v>8.502705157474713</v>
+        <v>-0.01007627118644068</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3282285714285714</v>
+        <v>0.3835677966101695</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1534714285714286</v>
+        <v>2.054131355932203</v>
       </c>
       <c r="L8" t="n">
-        <v>2.447614285714286</v>
+        <v>4.97135593220339</v>
       </c>
       <c r="M8" t="n">
-        <v>3.014714285714286</v>
-      </c>
-      <c r="N8" t="n">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -837,40 +811,37 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>7.941727272727273</v>
+        <v>8.795370370370371</v>
       </c>
       <c r="D9" t="n">
-        <v>28.14355454545455</v>
+        <v>71.56258465608465</v>
       </c>
       <c r="E9" t="n">
-        <v>10.89314545454546</v>
+        <v>90.77362433862434</v>
       </c>
       <c r="F9" t="n">
-        <v>77.57755736371568</v>
+        <v>78.21005291005291</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1803090909090909</v>
+        <v>0.1498703703703704</v>
       </c>
       <c r="H9" t="n">
-        <v>1.951805975403561</v>
+        <v>1.325391059235006</v>
       </c>
       <c r="I9" t="n">
-        <v>8.096697351609023</v>
+        <v>0.1847592592592593</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2111636363636364</v>
+        <v>0.09738095238095239</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1365545454545455</v>
+        <v>2.543507936507936</v>
       </c>
       <c r="L9" t="n">
-        <v>2.476454545454545</v>
+        <v>3.153888888888889</v>
       </c>
       <c r="M9" t="n">
-        <v>2.594272727272728</v>
-      </c>
-      <c r="N9" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -883,40 +854,37 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>8.802909836065574</v>
+        <v>7.961410256410256</v>
       </c>
       <c r="D10" t="n">
-        <v>88.59856967213115</v>
+        <v>29.08400641025641</v>
       </c>
       <c r="E10" t="n">
-        <v>79.14686475409836</v>
+        <v>13.17250641025641</v>
       </c>
       <c r="F10" t="n">
-        <v>96.92762295081967</v>
+        <v>79.14468788467131</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2377172131147541</v>
+        <v>0.1857884615384615</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4047223690270064</v>
+        <v>1.80007155511601</v>
       </c>
       <c r="I10" t="n">
-        <v>3.594725287216554</v>
+        <v>0.2145576923076923</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2946762295081967</v>
+        <v>0.1359358974358974</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1581762295081967</v>
+        <v>2.465467948717948</v>
       </c>
       <c r="L10" t="n">
-        <v>2.439622950819672</v>
+        <v>2.547628205128205</v>
       </c>
       <c r="M10" t="n">
-        <v>3.092745901639344</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -929,40 +897,37 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>8.780000000000001</v>
+        <v>8.8232</v>
       </c>
       <c r="D11" t="n">
-        <v>38.27062857142857</v>
+        <v>26.28291</v>
       </c>
       <c r="E11" t="n">
-        <v>83.88352142857143</v>
+        <v>91.09836999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>72.44714285714286</v>
+        <v>96.95530000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08402857142857142</v>
+        <v>0.29303</v>
       </c>
       <c r="H11" t="n">
-        <v>1.648691125277343</v>
+        <v>0.9523823962558845</v>
       </c>
       <c r="I11" t="n">
-        <v>5.215601969630026</v>
+        <v>0.26784</v>
       </c>
       <c r="J11" t="n">
-        <v>0.10855</v>
+        <v>0.34327</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003942857142857142</v>
+        <v>2.18137</v>
       </c>
       <c r="L11" t="n">
-        <v>2.703285714285714</v>
+        <v>1.9974</v>
       </c>
       <c r="M11" t="n">
-        <v>4.077714285714285</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -975,40 +940,37 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>8.398529411764706</v>
+        <v>8.798888888888889</v>
       </c>
       <c r="D12" t="n">
-        <v>39.43073529411765</v>
+        <v>98.74975757575758</v>
       </c>
       <c r="E12" t="n">
-        <v>42.893875</v>
+        <v>90.52574747474749</v>
       </c>
       <c r="F12" t="n">
-        <v>91.11301470588236</v>
+        <v>87.49262626262627</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2284485294117647</v>
+        <v>0.2092525252525253</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9309633484538844</v>
+        <v>0.5912891016189054</v>
       </c>
       <c r="I12" t="n">
-        <v>2.068345542077086</v>
+        <v>0.2700404040404041</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2815882352941176</v>
+        <v>0.1160909090909091</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1182426470588235</v>
+        <v>2.511474747474748</v>
       </c>
       <c r="L12" t="n">
-        <v>2.460257352941177</v>
+        <v>3.358181818181818</v>
       </c>
       <c r="M12" t="n">
-        <v>2.886176470588235</v>
-      </c>
-      <c r="N12" t="n">
-        <v>98</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1021,592 +983,37 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>8.7864</v>
+        <v>8.796388888888888</v>
       </c>
       <c r="D13" t="n">
-        <v>65.19525066666667</v>
+        <v>54.99522777777778</v>
       </c>
       <c r="E13" t="n">
-        <v>93.114608</v>
+        <v>79.13701111111111</v>
       </c>
       <c r="F13" t="n">
-        <v>77.93890666666667</v>
+        <v>89.43211111111111</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1485413333333333</v>
+        <v>0.2022888888888889</v>
       </c>
       <c r="H13" t="n">
-        <v>1.034218763886132</v>
+        <v>0.6859563481656791</v>
       </c>
       <c r="I13" t="n">
-        <v>1.855152956922079</v>
+        <v>0.2506111111111111</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1854853333333333</v>
+        <v>0.1286055555555556</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08754666666666666</v>
+        <v>2.490172222222222</v>
       </c>
       <c r="L13" t="n">
-        <v>2.560301333333333</v>
+        <v>3.199277777777778</v>
       </c>
       <c r="M13" t="n">
-        <v>3.30952</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8.789782135076253</v>
-      </c>
-      <c r="D14" t="n">
-        <v>66.0814422657952</v>
-      </c>
-      <c r="E14" t="n">
-        <v>92.71166666666666</v>
-      </c>
-      <c r="F14" t="n">
-        <v>77.04503267973855</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1436187363834423</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.205412659387715</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.526282264983204</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.1757734204793029</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.09141394335511983</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.553686274509804</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.259281045751634</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11.63112903225806</v>
-      </c>
-      <c r="D15" t="n">
-        <v>32.5775</v>
-      </c>
-      <c r="E15" t="n">
-        <v>81.30729032258064</v>
-      </c>
-      <c r="F15" t="n">
-        <v>98.64709677419354</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.3386451612903226</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.8861933983164699</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.20560870362959</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.3864032258064516</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.2750322580645161</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.239790322580645</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.919838709677419</v>
-      </c>
-      <c r="N15" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8.79016129032258</v>
-      </c>
-      <c r="D16" t="n">
-        <v>79.1790870967742</v>
-      </c>
-      <c r="E16" t="n">
-        <v>79.11682580645162</v>
-      </c>
-      <c r="F16" t="n">
-        <v>94.39983870967743</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2260516129032258</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4995062027123902</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.954607395260881</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.2842483870967742</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.1411354838709677</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.468774193548387</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.196967741935484</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.91904593639576</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.744720848056536</v>
-      </c>
-      <c r="E17" t="n">
-        <v>88.85106360424028</v>
-      </c>
-      <c r="F17" t="n">
-        <v>70.97236749116608</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.2683356890459364</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6.020007221567899</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.034436827166966</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.0006360424028268551</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.3776855123674912</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.064183745583039</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4.917208480565371</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.80042944785276</v>
-      </c>
-      <c r="D18" t="n">
-        <v>68.5429018404908</v>
-      </c>
-      <c r="E18" t="n">
-        <v>85.17463803680982</v>
-      </c>
-      <c r="F18" t="n">
-        <v>86.51607361963191</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1934233128834356</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.130964456085769</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.381805825484182</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.2227361963190184</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1496625766871165</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.454067484662577</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.951411042944785</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.797456647398844</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6.922924855491329</v>
-      </c>
-      <c r="E19" t="n">
-        <v>84.0754161849711</v>
-      </c>
-      <c r="F19" t="n">
-        <v>52.42849710982659</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.07603468208092486</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5.579899364423711</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.382951786285654</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.002682080924855492</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-0.09721387283236994</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.876184971098266</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.175895953757225</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8.254715447154473</v>
-      </c>
-      <c r="D20" t="n">
-        <v>39.13023577235773</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11.65155284552846</v>
-      </c>
-      <c r="F20" t="n">
-        <v>99.15878048780489</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2635203252032521</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.9461999594418006</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.262943413463653</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.3489024390243902</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.03804878048780488</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.495869918699187</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2.924390243902439</v>
-      </c>
-      <c r="N20" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8.780967741935484</v>
-      </c>
-      <c r="D21" t="n">
-        <v>39.53063870967742</v>
-      </c>
-      <c r="E21" t="n">
-        <v>84.08796129032258</v>
-      </c>
-      <c r="F21" t="n">
-        <v>72.74032258064516</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.08643225806451613</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.629210724716925</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.16249362885172</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.1113806451612903</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.008161290322580644</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.69603870967742</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4.034451612903226</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>9</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8.872371134020618</v>
-      </c>
-      <c r="D22" t="n">
-        <v>25.45042268041237</v>
-      </c>
-      <c r="E22" t="n">
-        <v>90.20259793814434</v>
-      </c>
-      <c r="F22" t="n">
-        <v>96.53969072164949</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.2962268041237113</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.095617317869175</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.867765831384551</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.2665670103092783</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.3514742268041238</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.169154639175257</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2.131855670103093</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>10</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7.97661971830986</v>
-      </c>
-      <c r="D23" t="n">
-        <v>37.73432394366198</v>
-      </c>
-      <c r="E23" t="n">
-        <v>21.85453521126761</v>
-      </c>
-      <c r="F23" t="n">
-        <v>91.6887323943662</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.2160845070422535</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.159885134949436</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.678119496441568</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.2525774647887324</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1623802816901408</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.432394366197183</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2.427887323943662</v>
-      </c>
-      <c r="N23" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>11</v>
-      </c>
-      <c r="C24" t="n">
-        <v>12.42840579710145</v>
-      </c>
-      <c r="D24" t="n">
-        <v>32.78265217391304</v>
-      </c>
-      <c r="E24" t="n">
-        <v>17.73242028985507</v>
-      </c>
-      <c r="F24" t="n">
-        <v>108.7733333333333</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.2540434782608695</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.2204966825840691</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8.516235890227312</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.3247536231884058</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.1530289855072464</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.448391304347826</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.99768115942029</v>
-      </c>
-      <c r="N24" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>agglom</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7.951610169491525</v>
-      </c>
-      <c r="D25" t="n">
-        <v>28.64146610169491</v>
-      </c>
-      <c r="E25" t="n">
-        <v>9.565033898305085</v>
-      </c>
-      <c r="F25" t="n">
-        <v>78.44628228820953</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1815084745762712</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.893498598435787</v>
-      </c>
-      <c r="I25" t="n">
-        <v>8.110028162182889</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.2160677966101695</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.1300169491525424</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.487635593220339</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.652966101694915</v>
-      </c>
-      <c r="N25" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1896,9 +1303,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA07ECF7-9D93-4C98-ADEF-9C5EEEDCACAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95D2DCB5-A584-4899-9B15-0555299711C3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AC55E12-75B7-45A4-B1F0-B0E5344F5FAA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CDAE001-CEB3-47C4-9E7F-29EE3F7C95F2}"/>
 </file>
--- a/MoPanda/output/05121111000000_electrofacies_mean_log_responses.xlsx
+++ b/MoPanda/output/05121111000000_electrofacies_mean_log_responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,50 +451,85 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>RHOB_N</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>CGR_N</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SP_N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>NPHI_N</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DPHI_N</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PE_N</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SGR_N</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RESSHAL_N</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RESDEEP_N</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>DTS_N</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>DTC_N</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>POR_N</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>RESDEEP_N</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>NPHI_N</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>DPHI_N</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RHOB_N</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>PE_N</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>TCMR</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>T2LM</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RHOMAA_N</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>UMAA_N</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RWA_N</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Lithofacies</t>
         </is>
@@ -510,37 +545,58 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.798021390374332</v>
+        <v>8.792664233576643</v>
       </c>
       <c r="D2" t="n">
-        <v>7.728213903743315</v>
+        <v>2.46792700729927</v>
       </c>
       <c r="E2" t="n">
-        <v>84.22026203208556</v>
+        <v>68.2948102189781</v>
       </c>
       <c r="F2" t="n">
-        <v>53.10262032085562</v>
+        <v>83.66994160583941</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07578609625668449</v>
+        <v>0.2146204379562044</v>
       </c>
       <c r="H2" t="n">
-        <v>5.360394965184467</v>
+        <v>0.1415875912408759</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005262032085561497</v>
+        <v>2.918284671532847</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.09124064171122995</v>
+        <v>84.50595255474452</v>
       </c>
       <c r="K2" t="n">
-        <v>2.865957219251337</v>
+        <v>6.023718296981738</v>
       </c>
       <c r="L2" t="n">
-        <v>5.153048128342246</v>
+        <v>1.261589836556546</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>175.1554293204895</v>
+      </c>
+      <c r="N2" t="n">
+        <v>85.61167883211678</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.09886861313868613</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8.773817518248174</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.731302919708029</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.450660583941606</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1381605839416059</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -553,37 +609,58 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8.785099601593625</v>
+        <v>8.925438596491228</v>
       </c>
       <c r="D3" t="n">
-        <v>44.45065737051793</v>
+        <v>2.065221052631579</v>
       </c>
       <c r="E3" t="n">
-        <v>88.77359760956175</v>
+        <v>9.903385964912282</v>
       </c>
       <c r="F3" t="n">
-        <v>72.67179282868526</v>
+        <v>88.91478245614034</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09754980079681275</v>
+        <v>0.0009824561403508772</v>
       </c>
       <c r="H3" t="n">
-        <v>1.527234446538811</v>
+        <v>0.3770736842105263</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1164980079681275</v>
+        <v>4.911894736842106</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04379681274900399</v>
+        <v>12.15376140350877</v>
       </c>
       <c r="K3" t="n">
-        <v>2.635099601593625</v>
+        <v>4.059668316827747</v>
       </c>
       <c r="L3" t="n">
-        <v>3.742470119521912</v>
+        <v>6.01558077018676</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>135.7018596491228</v>
+      </c>
+      <c r="N3" t="n">
+        <v>71.10066666666667</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.04265263157894737</v>
+      </c>
+      <c r="P3" t="n">
+        <v>16.05622807017544</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9.784000000000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>56.01049473684211</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -596,37 +673,58 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.070599999999999</v>
+        <v>8.808313253012049</v>
       </c>
       <c r="D4" t="n">
-        <v>21.84312</v>
+        <v>2.70566265060241</v>
       </c>
       <c r="E4" t="n">
-        <v>80.46836</v>
+        <v>35.55140361445783</v>
       </c>
       <c r="F4" t="n">
-        <v>82.05059999999999</v>
+        <v>84.14292771084338</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2666</v>
+        <v>0.1103253012048193</v>
       </c>
       <c r="H4" t="n">
-        <v>4.299087825982177</v>
+        <v>0.00255421686746988</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07812000000000001</v>
+        <v>4.115602409638554</v>
       </c>
       <c r="J4" t="n">
-        <v>0.36034</v>
+        <v>49.98522891566265</v>
       </c>
       <c r="K4" t="n">
-        <v>2.09382</v>
+        <v>5.288886159312366</v>
       </c>
       <c r="L4" t="n">
-        <v>4.6416</v>
+        <v>1.822776887028863</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>136.6451957900898</v>
+      </c>
+      <c r="N4" t="n">
+        <v>70.42114457831325</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.08498795180722891</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.320903614457831</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.83555421686747</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10.26283734939759</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.04704819277108434</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -639,36 +737,57 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.192179487179487</v>
+        <v>7.979583333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>40.60733333333333</v>
+        <v>2.505447916666667</v>
       </c>
       <c r="E5" t="n">
-        <v>13.196</v>
+        <v>30.68733333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>100.1058974358974</v>
+        <v>5.216364583333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2576282051282051</v>
+        <v>0.2401979166666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9061289205774157</v>
+        <v>0.1196354166666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3389294871794872</v>
+        <v>2.846458333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06631410256410257</v>
+        <v>40.78226041666667</v>
       </c>
       <c r="K5" t="n">
-        <v>2.491153846153846</v>
+        <v>8.304785707531288</v>
       </c>
       <c r="L5" t="n">
-        <v>2.869871794871795</v>
+        <v>1.754558149069218</v>
       </c>
       <c r="M5" t="n">
+        <v>161.2801041666667</v>
+      </c>
+      <c r="N5" t="n">
+        <v>85.3834375</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.12346875</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.348645833333334</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.72615625</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7.60184375</v>
+      </c>
+      <c r="S5" t="n">
+        <v>43.86078125</v>
+      </c>
+      <c r="T5" t="n">
         <v>99</v>
       </c>
     </row>
@@ -682,37 +801,58 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.7730625</v>
+        <v>8.787263157894737</v>
       </c>
       <c r="D6" t="n">
-        <v>86.03218124999999</v>
+        <v>2.557244210526316</v>
       </c>
       <c r="E6" t="n">
-        <v>78.24554375</v>
+        <v>64.96632421052632</v>
       </c>
       <c r="F6" t="n">
-        <v>100.1344375</v>
+        <v>90.98089473684212</v>
       </c>
       <c r="G6" t="n">
-        <v>0.25001875</v>
+        <v>0.1891726315789474</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3103069380878132</v>
+        <v>0.08933894736842106</v>
       </c>
       <c r="I6" t="n">
-        <v>0.30704375</v>
+        <v>3.307494736842105</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1721</v>
+        <v>97.59575789473685</v>
       </c>
       <c r="K6" t="n">
-        <v>2.41580625</v>
+        <v>2.209703995006923</v>
       </c>
       <c r="L6" t="n">
-        <v>3.010125</v>
+        <v>1.063464539474612</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>158.9136235036232</v>
+      </c>
+      <c r="N6" t="n">
+        <v>78.4773052631579</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.08277473684210526</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.054671578947369</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.770364210526316</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8.781334736842105</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.07409894736842106</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -725,36 +865,57 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.07061538461538</v>
+        <v>12.44753846153846</v>
       </c>
       <c r="D7" t="n">
-        <v>32.65527692307692</v>
+        <v>2.445892307692308</v>
       </c>
       <c r="E7" t="n">
-        <v>47.61703076923077</v>
+        <v>32.95776923076923</v>
       </c>
       <c r="F7" t="n">
-        <v>103.9490769230769</v>
+        <v>17.41961538461539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2934</v>
+        <v>0.3301538461538462</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5453248536077085</v>
+        <v>0.1544923076923077</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3529692307692308</v>
+        <v>2.984615384615385</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2104384615384615</v>
+        <v>43.42181538461539</v>
       </c>
       <c r="K7" t="n">
-        <v>2.350230769230769</v>
+        <v>8.516227273023384</v>
       </c>
       <c r="L7" t="n">
-        <v>3.438384615384615</v>
+        <v>0.1924871424840155</v>
       </c>
       <c r="M7" t="n">
+        <v>259.1030769230769</v>
+      </c>
+      <c r="N7" t="n">
+        <v>109.8072307692308</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.2102615384615385</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.117107692307692</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.755923076923077</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.466938461538462</v>
+      </c>
+      <c r="S7" t="n">
+        <v>224.9538</v>
+      </c>
+      <c r="T7" t="n">
         <v>99</v>
       </c>
     </row>
@@ -768,37 +929,58 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>8.907796610169493</v>
+        <v>8.792542372881355</v>
       </c>
       <c r="D8" t="n">
-        <v>7.726546610169491</v>
+        <v>2.442672316384181</v>
       </c>
       <c r="E8" t="n">
-        <v>90.29174152542372</v>
+        <v>89.62278531073446</v>
       </c>
       <c r="F8" t="n">
-        <v>69.14796610169492</v>
+        <v>79.83092655367231</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2714406779661017</v>
+        <v>0.3059887005649718</v>
       </c>
       <c r="H8" t="n">
-        <v>6.31759625792264</v>
+        <v>0.1563841807909604</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01007627118644068</v>
+        <v>3.285310734463277</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3835677966101695</v>
+        <v>122.8149152542373</v>
       </c>
       <c r="K8" t="n">
-        <v>2.054131355932203</v>
+        <v>3.213538641044094</v>
       </c>
       <c r="L8" t="n">
-        <v>4.97135593220339</v>
+        <v>0.2612239886411488</v>
       </c>
       <c r="M8" t="n">
-        <v>8</v>
+        <v>204.8829378531073</v>
+      </c>
+      <c r="N8" t="n">
+        <v>97.97338983050848</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1556779661016949</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.668559322033898</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.756598870056497</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.286994350282486</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.08249152542372881</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -811,37 +993,58 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>8.795370370370371</v>
+        <v>8.240062111801242</v>
       </c>
       <c r="D9" t="n">
-        <v>71.56258465608465</v>
+        <v>2.41844099378882</v>
       </c>
       <c r="E9" t="n">
-        <v>90.77362433862434</v>
+        <v>37.81239751552796</v>
       </c>
       <c r="F9" t="n">
-        <v>78.21005291005291</v>
+        <v>28.26015527950311</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1498703703703704</v>
+        <v>0.2824037267080745</v>
       </c>
       <c r="H9" t="n">
-        <v>1.325391059235006</v>
+        <v>0.1251055900621118</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1847592592592593</v>
+        <v>2.358509316770186</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09738095238095239</v>
+        <v>50.13574534161491</v>
       </c>
       <c r="K9" t="n">
-        <v>2.543507936507936</v>
+        <v>3.954331410687934</v>
       </c>
       <c r="L9" t="n">
-        <v>3.153888888888889</v>
+        <v>1.387520697340339</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>163.5344677719624</v>
+      </c>
+      <c r="N9" t="n">
+        <v>87.3384553416691</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.06617268845055457</v>
+      </c>
+      <c r="P9" t="n">
+        <v>765.3436149068323</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.70983850931677</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6.910627329192547</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.3929689440993789</v>
+      </c>
+      <c r="T9" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -854,36 +1057,57 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>7.961410256410256</v>
+        <v>12.03096153846154</v>
       </c>
       <c r="D10" t="n">
-        <v>29.08400641025641</v>
+        <v>2.239538461538462</v>
       </c>
       <c r="E10" t="n">
-        <v>13.17250641025641</v>
+        <v>31.74082692307692</v>
       </c>
       <c r="F10" t="n">
-        <v>79.14468788467131</v>
+        <v>78.82205769230769</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1857884615384615</v>
+        <v>0.3368461538461539</v>
       </c>
       <c r="H10" t="n">
-        <v>1.80007155511601</v>
+        <v>0.2751730769230769</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2145576923076923</v>
+        <v>3.812307692307693</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1359358974358974</v>
+        <v>38.8255576923077</v>
       </c>
       <c r="K10" t="n">
-        <v>2.465467948717948</v>
+        <v>6.970845832037508</v>
       </c>
       <c r="L10" t="n">
-        <v>2.547628205128205</v>
+        <v>1.305865913392949</v>
       </c>
       <c r="M10" t="n">
+        <v>176.0075</v>
+      </c>
+      <c r="N10" t="n">
+        <v>94.73750000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.02392307692307692</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7.626365384615385</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.674538461538461</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.210865384615384</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.238038461538462</v>
+      </c>
+      <c r="T10" t="n">
         <v>99</v>
       </c>
     </row>
@@ -897,37 +1121,58 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>8.8232</v>
+        <v>8.804493670886075</v>
       </c>
       <c r="D11" t="n">
-        <v>26.28291</v>
+        <v>2.879607594936709</v>
       </c>
       <c r="E11" t="n">
-        <v>91.09836999999999</v>
+        <v>6.558360759493671</v>
       </c>
       <c r="F11" t="n">
-        <v>96.95530000000001</v>
+        <v>84.15282278481013</v>
       </c>
       <c r="G11" t="n">
-        <v>0.29303</v>
+        <v>-0.001240506329113924</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9523823962558845</v>
+        <v>-0.09922784810126582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.26784</v>
+        <v>5.233924050632911</v>
       </c>
       <c r="J11" t="n">
-        <v>0.34327</v>
+        <v>9.081367088607594</v>
       </c>
       <c r="K11" t="n">
-        <v>2.18137</v>
+        <v>6.295252939205593</v>
       </c>
       <c r="L11" t="n">
-        <v>1.9974</v>
+        <v>5.723422579750866</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>100.0266008266668</v>
+      </c>
+      <c r="N11" t="n">
+        <v>52.035</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.02041772151898734</v>
+      </c>
+      <c r="P11" t="n">
+        <v>28.22228481012658</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.912620253164557</v>
+      </c>
+      <c r="R11" t="n">
+        <v>13.96420886075949</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.09994936708860759</v>
+      </c>
+      <c r="T11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -940,37 +1185,58 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>8.798888888888889</v>
+        <v>8.055199999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>98.74975757575758</v>
+        <v>2.531373333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>90.52574747474749</v>
+        <v>39.45510666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>87.49262626262627</v>
+        <v>5.628133333333333</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2092525252525253</v>
+        <v>0.3337733333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5912891016189054</v>
+        <v>0.1044533333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2700404040404041</v>
+        <v>3.172133333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1160909090909091</v>
+        <v>52.04374666666666</v>
       </c>
       <c r="K12" t="n">
-        <v>2.511474747474748</v>
+        <v>8.516030668743419</v>
       </c>
       <c r="L12" t="n">
-        <v>3.358181818181818</v>
+        <v>0.730048266157117</v>
       </c>
       <c r="M12" t="n">
-        <v>7</v>
+        <v>222.6725333333333</v>
+      </c>
+      <c r="N12" t="n">
+        <v>101.1990666666667</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.1304666666666667</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.94116</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.756826666666667</v>
+      </c>
+      <c r="R12" t="n">
+        <v>8.62532</v>
+      </c>
+      <c r="S12" t="n">
+        <v>171.8554666666667</v>
+      </c>
+      <c r="T12" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -983,37 +1249,58 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>8.796388888888888</v>
+        <v>9.013232323232323</v>
       </c>
       <c r="D13" t="n">
-        <v>54.99522777777778</v>
+        <v>2.196020202020202</v>
       </c>
       <c r="E13" t="n">
-        <v>79.13701111111111</v>
+        <v>28.0150101010101</v>
       </c>
       <c r="F13" t="n">
-        <v>89.43211111111111</v>
+        <v>93.28950505050506</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2022888888888889</v>
+        <v>0.2810202020202021</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6859563481656791</v>
+        <v>0.3005858585858586</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2506111111111111</v>
+        <v>2.393333333333333</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1286055555555556</v>
+        <v>32.87592929292929</v>
       </c>
       <c r="K13" t="n">
-        <v>2.490172222222222</v>
+        <v>6.522820357792241</v>
       </c>
       <c r="L13" t="n">
-        <v>3.199277777777778</v>
+        <v>0.678912703516565</v>
       </c>
       <c r="M13" t="n">
-        <v>98</v>
+        <v>182.4326242004884</v>
+      </c>
+      <c r="N13" t="n">
+        <v>100.4639393939394</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2996464646464647</v>
+      </c>
+      <c r="P13" t="n">
+        <v>98.94155555555555</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.693828282828283</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6.153333333333332</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.2536868686868687</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1022,8 +1309,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CB7B5A94B3B66459EB2A158AFFC5DBC" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a5d28c49d8192975ecf31e156fc603a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xmlns:ns3="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="065a4bc854d82261baf66a59a1047f05" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CB7B5A94B3B66459EB2A158AFFC5DBC" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ab064ae1c06d5d5cb1b59fac93aef9e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xmlns:ns3="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c0cefaab21e83ce2f7997d16a1f1916" ns2:_="" ns3:_="">
     <xsd:import namespace="cbc615f2-4093-4ebd-a034-1df8eb5aaad9"/>
     <xsd:import namespace="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c"/>
     <xsd:element name="properties">
@@ -1049,6 +1336,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1150,6 +1438,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="26" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1303,9 +1596,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95D2DCB5-A584-4899-9B15-0555299711C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6067A7CF-84AC-46D5-B286-C5795798507C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CDAE001-CEB3-47C4-9E7F-29EE3F7C95F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE47F663-26BC-43BE-B40F-B918AC4D7D15}"/>
 </file>